--- a/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_290.xlsx
+++ b/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_290.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>gpt4o_label</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>key_text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non_key_text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,16 @@
           <t>学生听写</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>请听我读</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>没有多的声音，就是旁边，，一，敕勒歌清是不是要读，还是要比对不对？看看谁最会听请听我读，我，敕勒歌，北朝民歌，敕勒川，阴山下，</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +533,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>刚刚我观察到非常积极的是后面那青岛组和阳光组，陈毅，他们那一幅都特别积极，我要重点关注今天我将派发特别小惊喜，</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +570,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>之谦，你来帮天成解答</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>这个观察非常的仔细关注到的同学请举手，能够为天成解答的请举手。哎，咱们班确实有高手哦，，</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +607,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>在下面的注释当中会出现来解释它是什么意思？请看现在下面是说什么？从，是什么意思？谢下面意思。好，这个是我们今天第一次接触听的最认真的是，</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +644,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>你明你知道我的什么？通过这个，尤其是，你知道了什么？</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>他可能被淘汰这个标题以及，这里的，介绍它是出自于哪里，</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +681,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>谁来大胆的猜一猜，雅娴</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +718,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>那是读出来还是唱出来呀？唱嗯，是的，等会儿老师会给大家播放这首歌。但是在播放之前，我们一定要学会，无差，请坐雅轩。那我们来看一看，</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +755,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>我跟你读</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>。四，四，</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +792,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>YYIpy盖，奥特，沙，滩，奥。</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +829,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>李君，我猜一下音，为什么？</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>有月，乌云满天。好嘞，不对，可乐，火，墙不对。那个，</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +866,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>是一个，左边</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +903,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>你先现在先读，从座位挪到旁边，你看得到的地方</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>小苹果玩具，是什么哦，看不太清楚是吗？好，等一下下课的时候，换第一条凳子，一床的凳子比较高。，好目光聚焦，</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +940,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>人在以前似乎可见，反应最快的是子明，</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +977,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>老师点到你的时候，大方肆的站起来，不对。</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>一起猜一下，没关系，猜错了也没有关系啊，站起来。</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +1014,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>代表的是，白发老人对不对？请坐加一分，看看还有没有往前有流水草帽在上面。好，现在啊越来越多了啊，好，嗯，好，触摸我们，</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +1051,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>好在这里他读现我们再来读一读，最后一句，预备起</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>一家下，千似穷不够看，夜，光，微，凉风吹草，低见牛，羊好，大家也关注到了这个现字。</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1088,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>再请你，表扬雅轩再倾听，请借助这幅图片来说一说这句话是什么意思？</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>敕勒川，阴山下嗯，我先说明一下这个敕勒川指的是一片大草原的名字，</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -945,6 +1125,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>请你解释一下</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>说的是地方，，好不好？</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -972,6 +1162,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>我请一个同学来等于</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>大草原在阴山的下面，对不对？好，请坐，主动加，理解词句分，那就是美丽的敕勒川大草原，就在阴山脚下，，</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -999,6 +1199,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>天似穹五笼盖四野，是什么意思呢？是不是大胆的猜？子明</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>穹庐的意思就是说圆形的帐篷因为阴山是在内蒙古，他们那些蒙古人啊会用蒙古包。那穹庐是圆形的帐篷，，</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,6 +1236,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>雅轩。那这句话大概的意思就是天空啊，就像民居住的圆形的帐篷一样，笼罩着四周的原野，原野就是笼罩着四周的草原。那晴天苍苍，</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1053,6 +1273,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>来看图说一说草原是什么样子的？</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>你们瞧一瞧这个草原上的天空是什么样子的，也就是天苍苍，什么意思？</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1080,6 +1310,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>很蓝是不是好？请坐，有一个同学在神，我要给他扣分，天空，蓝蓝的天空蓝蓝的叫做，</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1107,6 +1347,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>我们一起来，天苍苍</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>头发白白的叫做什么？操操，黑白，白，装，白发苍苍，那松柏嫩绿的叫做苍叫做苍苍。就是说，，</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,6 +1384,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>东海茫茫，那野茫茫是什么意思呀？嗯，只有四个同学能理解吗？全班只有四个同学，其，他同学都没有好听。野茫茫，我已经说了，野就是草原原野。被告。</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1161,6 +1421,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>请坐还有补充。</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>哦，田野绿绿的田野对不对？好，你要说我补充。对了，我补充嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1458,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>那你站在这样的圆点上给你的感受是怎么？</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>不是无边无际的动物，就是草原，无边无际，对不对？请坐。一个，</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1215,6 +1495,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>看到没有你的感受是怎么样的</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>一点不多边？</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,6 +1532,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>这个词语这么高级，他都不知道掌声送给他。还有没有？有的同学在走神啊之前，</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1269,6 +1569,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>谁来解释是什么意思？</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>风吹草低见牛羊，风嗯先自己想象一下，你在这样的大草原上，草低，见牛羊，注意，风吹，</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1606,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>谁能连起来说一说</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>是呀，牛和羊低着头吃草，然后风吹着好面低就出显现了，显现出牛羊就显现出来了，对不对？，</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1323,6 +1643,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>现在请你想象诗去内容，说说你看到想象一下我们写的内容</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>现同现是出现的意思啊，，说一说，你似乎看到了什么好，谁来说一说，</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1680,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>还有没有其他的，你可以大胆的猜</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>哇，真有想象力。着头在吃草，</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1717,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>请坐</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>敕勒人，敕乐民族在放羊。，还有没有？天成？</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1754,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>啊，走牛牛羊在走路，这个不是迷你朋友，</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1791,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>有着怎样的风景呢？天空啊，蓝蓝的，草原，无边无际，你就站在这个草原上，有很多的赤勒民族在放牛，放羊。</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1458,6 +1828,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>谁来说？</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>有很多很多的牛和羊牛和羊在吃草。好，睁开眼睛，你们觉得这是一种，什么样的画面？</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1485,6 +1865,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>的画面？陈嫂，</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1512,6 +1902,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>请坐还有没有不同意见？</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>哎，他想象，他说到一个词，颜色丰富，蓝小草绿是颜色非常丰富，对不对？</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1539,6 +1939,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>请你说</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>有的同学没有经营，在，，</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1566,6 +1976,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>这个词用的好风景秀丽，请坐看。</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1593,6 +2013,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>那我们最后如果你来到了这一碧，千里的草原抬起头，你会看到什么？柠檬，</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>很想去啊，紫瑞，的地方，流连忘返，好请坐不？</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1620,6 +2050,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>你还可以看到什么？</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>你又看到了什么？一阵风儿吹过，这原本安静的画面又变得鲜活了起来，除了我们书上写的，你还可能会看到什么，雅洁，</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1647,6 +2087,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>哎，有可能看到蒙古包这里一定可以看到，不是还有可能请坐听哦。</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1674,6 +2124,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>德宇给你一个机会</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>其他同学都没有想吗？，我我，我，拜拜，他应该是哦，有可能在种田是吗？可是这可是草原他们有可能在什么？</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1701,6 +2161,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>哦，有可能请坐还有吗？还有可能什么？</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1728,6 +2198,16 @@
           <t>学生齐写、独立练习</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>我们先把节奏线画出来，画出来过后，自己记读神话记读</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>好，注意，。你看，</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1755,6 +2235,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>行车自开的自行车，这个这个，门霞，似，电视剧天苍苍，茫茫。杨见九阳，穿越火线变大作战，20小姑娘什么名字？</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,6 +2272,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>我点一个同学，刚刚一直盯着黑板看的同学</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>翟老师每次说的话，一定是有科学依据的。你如果眼睛不盯着他，你肯定不可能跟他成为朋友。，嘞，是，</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1809,6 +2309,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>是，他真的出现了问题。</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1836,6 +2346,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>现在我们一起来歌曲是什么怎么唱的</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>低见牛羊，悦请坐好，？我说了，这是一首所以我们的敕勒民族啊，他们都是唱出来的，我们一起来听一听。</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1863,6 +2383,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>笼盖四野，天苍苍，野茫茫。风儿笑，</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1890,6 +2420,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>低见牛羊，诗歌唱，阴山下，天穹庐，笼盖四野，天苍苍，野茫茫，风吹草，低见牛羊，</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1917,6 +2457,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>来看一下一下，想一下</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>苍茫，野茫茫，风吹草，低见牛羊，，</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1944,6 +2494,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>变成你来试一试</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1971,6 +2531,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>谁来唱一唱</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>好，掌声送给田。他读的的第二种方式，我说，请坐晨给他加一分，谁来唱一唱？在下面唱本本事，已经，</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1998,6 +2568,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>谁来唱一唱小心</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>没有请敕好，请先先坐，，</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2025,6 +2605,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>永远是，天苍，苍野茫，茫风吹浪，</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2052,6 +2642,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>风吹草地见悠扬。吃，阴山下，天穹庐，笼盖四野，野茫茫，野茫茫，风吹低见牛羊，请，</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2079,6 +2679,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>如果要你来写这些字，你觉得最容易写错的可能是哪个字或者哪个字虐虐待</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>有一个字读的这个潜，承建第二审核。，虐待这个虐待可能写错的地方是哪</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2716,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>是这个横的这个山倒的方向，对不对？</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2133,6 +2753,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>可能对，就是往里面是不是不啊我知道这个开口朝里面啊，</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2160,6 +2790,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>对，怎么记住，它是那朝外面呢？一定是朝外面，边虐虐边自虐边虐，一定虐。别人说了，虐别人一定是虐外面好外，</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2187,6 +2827,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>记住这个方向适应一好，有同学走神了，看这里，还有哪个字特别容易错，畏罪潜逃</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2214,6 +2864,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>这个字好留一下，还有两个字，惩戒的惩，的的容易错，为啥少少看清楚啊，就是戒烟的戒，借酒的借</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2241,6 +2901,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>啊，你们说了那么多次哈，现在最重要的，你们没有说到的，我现在明确告诉你了，</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2268,6 +2938,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>这个字吕字的错。</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2295,6 +2975,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>熊佳琪说</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>欢迎问坐，还有没有题？，</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2322,6 +3012,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>反应也非常迟钝，我们看反应快的，你发现，</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2349,6 +3049,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>的好看，反应非常天，因为还在媒体，我</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +3086,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>举手的说的不说了</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>他用的是远距，还有没有同学用了两个字，说一句跟文章猫有关的话，，我们写一个反快的朱，猪喜欢男人，但是我没有，我不仅，</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2403,6 +3123,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>不仅阻犯那什么，还虐待那什么，对</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2430,6 +3160,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>好，这个取名毫无疑问，根据文章内容来对不对？我们就根据今天早上预习有一个啥呀，</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2457,6 +3197,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>三位同学，一起来取</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>取的名字就体现出你对文章内容的，准确的能体现水平好。，你可以重点取好一个名字，你这三只猫的名字你都取好你们在取名的过程当中，我就来检查看你们的预习的情。</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2484,6 +3234,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>第一个白龙卜。第二个第，有一个问题，的点啊，咱，们一六啊，明天一，包第二次包邮，这个特别第三次包邮。如我，</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2511,6 +3271,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>行，好的好的，好错了，</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2538,6 +3308,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>肚子，我你，还在这，当然当然当然他是11月的，走走，亮。我要这个实际上，</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2565,6 +3345,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>晚上看我，娃娃来的是什么？箱，悟空悟招代理好评，淘汰款，我在，啊，想好了来做我的准，孕妇休季休闲裤，件气，差不？多英，</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2592,6 +3382,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>现在我们来听几位同学，看他给猫取的名字是什么？</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>他不仅看起来内容很多，而且大多数非常准确。大多数哈用这个列数字的方法，这个表示就不准确，但是大多数非常准确，非常好，</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2619,6 +3419,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>来陈继成</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>叫不叫你你都没有做作业，</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2646,6 +3456,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>我们听他们的，我们他</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2673,6 +3493,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>白熊，白滚滚了，</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2700,6 +3530,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>只猫它毛是，八一斤的，然后，</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2727,6 +3567,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>100，这个，荐像玄幻小说，像玄幻小说里面</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,6 +3604,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>洗衣液，但是你必须的，其实我觉得表上比你们要好，</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2781,6 +3641,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>看后面也是马羊山。好，最后一组，最后一组，我能</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2808,6 +3678,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>随随便，奥特赶快抓紧时间时间在上面看，下面说</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>没有了吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2835,6 +3715,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>阳光这个阳，</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2862,6 +3752,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>吗？嗯，我也要去，啊，按键，啊，这个阳光已经错阳光是在这里，</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2889,6 +3789,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>他最后给你一个机会，</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2916,6 +3826,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>好的，表述的非常好，是吧？但是最后这个名字我不知道效果如何。好，最佳效果就是你们养一只只猫检验一下。刚才同学说的基本上是基于我们的这个表格，对吧？黄皮耗子，</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2943,6 +3863,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>阳光。这位同学这个名字虽然不好听，但了这只猫的什么</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2970,6 +3900,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>但是我比较遗憾，在取名字当中，你们更多的关注的是他们外形，你没有渗入到人家猫的内在，感觉很少，</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2997,6 +3937,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>的慢吗？倒是这个有点意</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3024,6 +3974,16 @@
           <t>个体发言、独立练习、个体发言</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>第一件，说话，找相关的句子，三只猫里面找一只最什么的</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>我要把理由你要做三件小事，第二，朗读，自己在下面自言自语的语。第三个表达站起来说，</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3051,6 +4011,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>小玩家文中出现了</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3078,6 +4048,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>最最最的那，但是你要阐</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3105,6 +4085,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>独立键思考，这一分钟你要思考这个句子，你要圈画</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>，在下面涂，一分钟时间很紧，</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3132,6 +4122,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>一定要落实到具体的具体，</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3159,6 +4159,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>呢？他会，他在无聊的时候，他一直，别人，想听歌的时候一吃，烧一，是老鼠捉老鼠，咱们尊生活。我知道你当时候来，当时我没有回去，以所以在我们，</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3186,6 +4196,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>我们可以猜一下，他说的可能是哪么</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>？如果说，上面有的名字更好了，说明我们刚才这个名字是有意义的，是吧？而且用你字字，我比用第一、第二第三是更带有什么？情感在里面是，好的嗯，</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3213,6 +4233,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>不能总是这这这几组同学，我觉得前面同学后面其实开始很少的这</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3240,6 +4270,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>拿那个胶皮，看两次都是我们的，这边你就看这个，</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3267,6 +4307,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>因为那文说他的心情，</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3294,6 +4344,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>你后面你说了的小声会很</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3321,6 +4381,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>发言的日日代表的话就他</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>现在我们就来考虑一个问题，何以见得更活泼？这个更活泼？除了原文有这个句子，我们还从哪些细节当中感受到了更活泼？拍到是林来好，我们那个谁来是韩出去了？，</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3348,6 +4418,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>还有同学有补充，为什么说更活泼？</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>细节，而且是用倒推嘛，就是这个思维很好好细节倒推，</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3375,6 +4455,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>第一次曾经活泼泼，但过</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3402,6 +4492,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>生人有的用手上月亮，又跑到，了在哪里？在哪里？我你发现我们穿的会是哪些第二个是是，第三个是接着是越到墙上跑到三个字三，</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3429,6 +4529,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>大家一起说吧</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>你都会想起这个画面，，哪个情节？捉蝴蝶，一个小事情，小猫的性情就越来，语言细腻的表现。好，这是最有趣活泼的，我们公认是小黄猫。换一只猫啊，不是一伙的吗？我</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3456,6 +4566,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>流浪猫。又瘦，</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3483,6 +4603,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>更没地位了。你爸又不理我，红一个爱猫的三倍，结果爱猫的三倍一也不理他不爱</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3510,6 +4640,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>最没地位了，待几个月都还混不到地位。</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3537,6 +4677,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>我明白了最惨的猫是玉白，玉白最惨的地方是对吧？你刚才说前面的不是最惨最惨最请坐请坐，哎，我们怎么笑都笑不下来，啊，年过月了嗯，好吧，防</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3564,6 +4714,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>黑龙最坏的猫。黑龙</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3591,6 +4751,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>我一开始听你说最坏就是黑猫，我怕你重点搞错了，因为黑猫在文中简直就没有直接出现，对吧？对，但是这位同学很聪明，他现在又绕回来了，鸟事啊坏是坏在他那么厉害，</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3618,6 +4788,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>请大家记住这句话</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>害死哦，哎，这句话值得玩味，，看夏天说是不是这样。他说这句话是是黑猫把玉给太子自己，白，你们自己己记住句话啊，是不是黑猫把玉给太子？好的，</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3645,6 +4825,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>更深一步关注什么呢？跟什么有关？跟人，是吧？第三个，那可能就更需要我们去深度你认为我，最难忘的，各第三人</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3672,6 +4862,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>你自己，被告那个数据</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>所有原发言的课上，要必须要做好发言的同学，</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3699,6 +4899,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>他现在开始小组派始组织</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>他没有有到位，，</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3726,6 +4936,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>他，就是100，百，百。第三，点30左右，</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3753,6 +4973,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>还有第3100，1815张，最第一次，偷，篮。对第四次偷篮，不要钱，你在干嘛？因为是第三个是作，第第三个是作者，</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3780,6 +5010,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>虚餐真就不见族的神奇，19310，19310，老师，对对，</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3807,6 +5047,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>望了做吧做吧做吧。迪罗奥特曼，我们在二月底12月底那底刚好10，我要号，一开始就是那个订率案的话，然后你要对那个，开始，然后的话实没有问题。</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3834,6 +5084,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>还有这两个人啊，可以了吧。你这个，被的小组是怎么？鼎华店那个五刚刚参与的这个，然后加分第二波的陈信承认，啊，虽然他们，</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3861,6 +5121,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>现在我们来看，我最难忘的猫可能是，给你们们一个态度，</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3888,6 +5158,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>正确的订正过来，</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3915,6 +5191,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>我看你们的作文，我是今天我是这周，我在看昨，我两两天时间看完两个班的啊，然后我在看的时候，我们差点就忍不住不是揍我要克制自己。那支红笔手上拿的红笔，我想给你们正特别字的，因为我发现不能这样传递起来，</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3942,6 +5228,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>你看看袁芳的态度，我觉得他确实看得到有一些变化的哈。昨天你们班老师是</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3969,6 +5265,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>确实昨天，整个这个直播的老师都在别边方，没有方拍到他的，</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3996,6 +5302,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>我们来看我们自己来改一下。</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>我那手上那支笔没给你们改。就一开始就给看到房间口的。第一个是画了一下，后面几张，我说不行，我就完键可能我也没改。完，其其他的也有错别字，我我没改过来，这里面写的是啥，我基本上这个作文。</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4023,6 +5339,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>先自己批改</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>首先第一个第一步呢，你按照上面的要求来来拿起红笔来，严格按照这个规范来，</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4050,6 +5376,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>第一个话整体阅读一遍，第二遍开始盖，圈出你的错别字有些人在那里不会写，就那么空着，查自己都不愿意去查，住在读的时候，你看看自己哪些句子是不通顺的。</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>第一个的话，你自己看你有没有这样认真看过你自己写的作文。对，</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4077,6 +5413,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>拿出笔来，先自己边读边改</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4104,6 +5450,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>慢慢的读读了去，你就能发现了。读完之后，在文章的最后啊写一个字t</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4131,6 +5487,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>因为我发现我给你们改作文，平常</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4158,6 +5524,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>那有的时候洋洋</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4185,6 +5561,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>你要看看别人的结构啊，讲话呢？</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4212,6 +5594,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>这样换改判了别人的，在给别人的作用是很多问题，你自己也</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4239,6 +5631,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>改作文最笨的</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4266,6 +5668,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>你们之前，你看，</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4293,6 +5705,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>好吧，这其实也是在教</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4320,6 +5742,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>有个修正栏，</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4347,6 +5779,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>这个，别过来，</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4374,6 +5816,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>可以相互先稍微讨论一下</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>。拜，我就不拜，也就是，可以跟我说说什么问题，</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4401,6 +5853,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>对，呀，加上这的损失一致，就是现在，怎，</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4428,6 +5890,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>等一会随便，</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4455,6 +5927,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>他们的，这一，</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4482,6 +5964,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>枕头的这，在讲一下，啊，那个呢，</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4509,6 +6001,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>啊，稍微安静一点。行，那拜拜拜拜，然后一起，</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4536,6 +6038,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>叫我们稍微讨论一下这么激动。</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>这么激动啊，好，互批结束来交换回来上，近一点，</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4563,6 +6075,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>有大概两分钟等一转，下一个我们</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4590,6 +6112,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>说的是一周，应该会保证你们有一个阅读课，我没说一周必须去图书馆，你不要参改我的吧，哎呀，需要，上，好，懂没事越，阅读课不等于直接进图书馆不等，于不等哟，</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4617,6 +6149,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>手共是有这个的。</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4644,6 +6186,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>把回翻过来信号的翻过来中</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4671,6 +6223,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>你们其实现在最大的一个问就是第一个是，结构上你写的东西没有一定的顺序。第二点，你们是写东西，很啰嗦，我，帮你，这么，真不行。</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4698,6 +6260,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>给你们小组这边讨论，待会儿现在是还有三分钟可以开始。</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>待会儿下课的时候，下一节课再给你们大概10min把这个讨完，我们到时候就直接展示清楚了吗？没什么好好的开始。你按照要求来，</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4725,6 +6297,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>哎呀，来，我好饿了，然后大哥，先全扬各自的，晚上拿过来擦一下，今天晚上不拿来送，</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4752,6 +6334,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>我我就要睡觉可以了，可，以，在打牌，然后，不知道啊，我知，道，啊，快点，</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4779,6 +6371,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>你要喝一该，这还在，是是，现出，</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,6 +6408,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>s时间呢，被告人，</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4833,6 +6445,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>那你先说一下D</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>这里。好，，</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4860,6 +6482,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>这也是一种很好的方法。如果你没有办法，刚才他坐在哪，但是通过排除法能够选出正确选项，也是一种方法。这一节来，无论什么什么，都，无论什么什么，都应该说付款是要，</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4887,6 +6519,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>无论干部和群众，还是无论干部还是群众，</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4914,6 +6556,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>你想喝咖啡或，就是他们分不清什么时候翻译成，还是什么时候翻译成？或者那你们能不能跟听，能什么时候看一场海试？能不能懂学生规律？对问句当中用还是肯定句当中用或者，</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4941,6 +6593,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>这个，无论还是这个无，不就是一种否定吗？条件状语，</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4968,6 +6630,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>赵学涛，说选项来</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>下一题，大题，，</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4995,6 +6667,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>常出现什么等问题，出现什么什么问题？好b啊，请坐。对，是这个问题吗？</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,6 +6704,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>是那个问题吗？</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5049,6 +6741,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>你后面这个正确学习态度和科学学习方法是学习成绩的什么？有有，所以他自己什么，两遍跟一面的问题，我，更换一个，你们就不知道，</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5076,6 +6778,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>啊，对嗯，对吗？</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5103,6 +6815,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>哎呀，显示资势，然后他发没错，错，应该，先是资深，然后才是办，a也是确实，</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5130,6 +6852,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>有问题，为了有效防止防止，</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5157,6 +6889,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>勤洗自行车，注意个人卫生。我们应做到勤洗手常通风。注意个人卫生每应该也是没有问题饭，我</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5184,6 +6926,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>是为了了你这个贵的产品，那一般就没有了。来参第，中国诗词大会之所以受到中人喜爱的原因是因为，</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5211,6 +6963,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>好，下一题，这个位置，坐</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>是正确的啊。之所以喝，是因为是没有问题的。，</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5238,6 +7000,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>改什么？对，他是应该改，那应该改，</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5265,6 +7037,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>你继续啊</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>这个地式不就是为了嘛，高是地，他们两个是重复的，删掉一个，好，来方学，。</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5292,6 +7074,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>清，楚关键在于了，</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5319,6 +7111,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>好，这一题选CD呢</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>想关键不就是重要的意素吗？10分重要还是重复，，</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5346,6 +7148,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>平均的大多吧，</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5373,6 +7185,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>你们自己读一读学生</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>大，就直接大多不可以吗？来坐地，怎么？，手机平均使用超过七小时。这句话是我们，平平，</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5400,6 +7222,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>学生使用手机，啊，不是学生使用使用。</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5427,6 +7259,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>缺少主语，衰老不育，s表示不意是吧？啊，</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,6 +7296,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>品牌日在上海举行，向全世界展示了中国制造面。觉得中国品牌日它已经是个活动，</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5481,6 +7333,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>CD有明显。</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5508,6 +7370,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>BC都明显的那个都是一定的。</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5535,6 +7407,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>跳友、跳舞等学习，什么比例？啊？a刚才这个故事，</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5562,6 +7444,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>向，赶了子对了，抛不，世界在最还是两年，上面就死了，那意思啊，ok，老公还是个疑问，</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5589,6 +7481,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>x轴之间，然后找六里面的，还有白云，可以这这样子，我怎么，啊，是吧？一、很多人利用，怎才能才能避合合法权益？不不避免避免中国拥护，非常，</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5616,6 +7518,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>没什么问题了。来看个文文，好，看热闹啊，现已经自己都过了，我老朋友，那你这上面是怎么订正的那你下次做到这种类似的题目，你还知道吗？老师，第四题，第一个作品会，</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5643,6 +7555,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>李慧就是你刚刚说讲</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>来看这个看这篇文，德班的人很，意有晚上有找，找个人来说啥就聊什么意思，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5670,6 +7592,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>请坐大概意思是这样子的，我相信大部分同学，这个动作是不是没明白他生词的原因？断句七这句断句很简单吧，梳子，七、要装满梳子，就是梳子带回主席带回，好，</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5697,6 +7629,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>主席大会，中央，</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5724,6 +7666,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>个月，什么叫主席在回复我？</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5751,6 +7703,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>子回来。第一个来走第三中队，前肯定有断据，明白吗？该是主语，名称，不重要，我们现在，今年重点a，这个音这个音，</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5778,6 +7740,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>文档初中到了，中午还没有到，最至，这个什么送？送送，也是道的意思，如果我敢取一切回来这个人，为为什么？哎，为什么why？对吧？智慧功能，</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5805,6 +7777,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>你的时候不如意，你上得上，抵得上啊，发快递完毕完毕完毕，啊，就是完成，嗯，节，日这个呢，哎，勾，勾，</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5832,6 +7814,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>还有这篇文言文选什么？中国古代笑话故事，</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5859,6 +7851,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>啊，对，星月和满月那里啊，妻子指着那个新月丈夫立马就觉得嗯一定是那个形状，但是妻子不知道的是什么月亮会怎么样？它会变圆电源呢？</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5886,6 +7888,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>天天他那一个月额，这不是重点。那她的丈夫看到这个月轮正马，怎么样也没有想那么多，就带了一面镜子回来。</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5913,6 +7925,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>还有元月呀，他是老师要盘的图真是的，突然吃饭这个女生？</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5940,6 +7962,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>好的，那那你就输了啊，没有什么么关系的，</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +7999,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>同学再看下面的坚使主语</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>环境好，，</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +8036,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>没？有人了，你的小孩，我加我，这是吗？主语，主语是小孩儿，没错，以单词所指，主语，意思以小孩儿为主语，</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +8073,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>个一样。艾特这个是，</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +8110,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>这是重点吗？他学味之后还排了多少水滴，到了一个石头，中间是谁？女列车员女列车员干什么事情告</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +8147,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>好读书。那后面呢，第一组完之后，他干什么呢？我就好好休习，一个大，是成功的，是他最后做了什么事，结局做了什么事？</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +8184,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>你觉得这里他那个天使主语最让你惊讶</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +8221,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>老啊老者，各位老者在开始有没有告诉大家，他是什么身份？对，花，这里面是一个什么点呀？悬疑点就是我们说的设下悬念，往往设下悬念的部分，是一篇文章中的高潮部分。悬念有悬念的地方，还是高潮的地方，</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +8258,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>所以一定要拿到多少啊，后来成了一个成功人士，</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +8295,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>那吃晚上还是晚上都不清，他不能吃，我</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +8332,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>那个下播的时候平板收了啊，你</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +8369,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>他不听吗？对啊对啊，谁搭应</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +8406,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>没事啊，时间多一个月，</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +8443,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>现在开始同学，水果至少早早到2:30和两点以上开。我这样刚刚，然后呢，小，小，师爱10岁上的故事，</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +8480,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>你要看我说什么，这是我的衣服，那么，我对别人赞，对吧？的地多的，</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +8517,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>好，可，不要走，我来个没事，就说出，在那个我是，电视剧么哒啊，喵喵，哎呀，你的牛是打好，挑战啊不要问题。还有一，</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +8554,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>是这什么字儿啊？所以，今天说我们还讨论田老师，更多的原因就是，单位位，</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +8591,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>就是说他们，</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +8628,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>我想，谁呀谁呀？</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +8665,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>你注意要啊，就是喜欢味儿，对吧？</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +8702,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>冒号的话，以没有密，号，你没同意没同意啊，</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +8739,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>还有一分钟，考他呢？你结束了</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>肯定是，其他说，，</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +8776,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>的讨论要是，</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +8813,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>不相信你，怎么就整个</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +8850,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>来，先去，电视，</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +8887,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>他们一样的价格。</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8924,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>吃完了吃完了，</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8961,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>始说，我又回没有啊，可以，没有意系。第15，</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +8998,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>你要说它的作用，类似它的作用</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>挑战，就是，怎么多？。</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +9035,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>那如果你没有找到它的作用，那这次对比就是没有意义的，</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +9072,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>时代的便签可以。但这个时代的便仅仅是你只写时代的变迁，这篇文章的主题记不记楚？这篇文章想要表达的时代的变相吗？</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +9109,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>他上台了</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>一下，小组，，需要。</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +9146,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>记忆念口，嗯，好，各位评，</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +9183,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>你们是三组，你们四个，你们四个是四组，你在这儿给我看一下，现在你们仨一组知道吗？</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>好听好了，这个位置坐的同学起立，一号，一号起例一号，这个小组这个位置坐的是一号，一号都起立，</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +9220,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>那能让二月的花开放的可能是什么风呢？还，大春和暖风春到，能够掀起滔天巨浪的，可那是什么风？台风台风龙卷风，那么能让所有的竹子全部清的是什么风呢？大风</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +9257,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>那么通过预习课文，你喜欢这个风娃娃吗？</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>一个多么美好的愿望啊。嗯，喜欢说一下理由，喜欢还是不喜欢，都要说一下，理由，不喜欢你来说，不喜欢，好，说一下理由是什么，</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +9294,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>还带什么呢？</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>哎，除了这款的小树，</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +9331,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>是因为它吹跑了风筝，还干了什么事儿？</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>不喜欢这个理由，是吧？</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +9368,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>它通过什么方法帮助小苗快速生长</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +9405,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>风什么？啊还转动了风风车是吧？它还还有什么你喜欢的原因，还有什么？</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +9438,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>这样读断断续续读一遍，预备起再来一遍</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>仍然仍然栽树栽树，责怪责、怪笨笨第一大战，摇摇摆摇摇摆，摆摇摇摆，走。好，同学们看到这样的词语，，</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +9475,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>你来说，</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>哎呦，我特别佩服大家，这些字都不带拼音读的这么好。哎，那我就感到有一点很好奇的地方。同学们，在读这一课的时候是没有拼音的那你遇到不认识的字，你都是用什么办法来解决？</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +9512,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>谁谁来给大家讲一下他做的第一件好事</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>将默读，好，。好，那个你来吧，小姑娘，啊，他是怎么做？他具体你讲讲这个事儿，他是怎么做的？</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +9549,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>举野举手，你来说来到了田野里。</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>嗯，好，请坐。那么我们先来看蜂娃，来到了哪里，好，他看见了什么来说一下，你来说</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +9586,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>看见一架正在慢慢转动的风车抽上来的水，</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +9623,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>断断续续的留着。好，我们来看一下这个续字，知道是什么意思吗？，很慢，就是续吗？好，大家看这里看我看这里哦，</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +9660,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>谁来说一下？你来说</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>停了断了是吧？好，我再续一下，所以旭是什么意思？，</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +9697,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>这句话，谁来给大家读一下，你来</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>水流水流是一个生词啊，名词好读一遍，预备起断断续续的字，在寂静的水流啊，同学们能不能读出断断续续的感觉？，</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +9734,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>谁来继续，讲述这个故事，你来说</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>看见预备起看见一家大口车正在那慢慢转动，来了水断断曲续的流着，真会读书，看见了这个风娃娃是怎么做的，，</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +9771,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>他是怎么做的？</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +9804,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>这个男孩子你起来说</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>漂亮，啊，第一个是讲到了第一个动词表示动作的词语是，，就你对第一个是，西还有吗？</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +9841,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>这句话，我们一起来读一下他</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>借助句子都可以拍出，音好，，深深的预备起他，深深的吸了一口气，不必摘，是这样分力度不够，我们男生读一遍，预备起他</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +9878,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>最后一个小女生，你来说，对，就你</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>劲他这么热心，这么努力的帮助他结果怎样呢？谁来说一下？这件考生的结果是什么？培训班？看到每个同学好，，</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +9915,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>谁来说一下？</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>他帮他吹风车了，还被人们责怪了吗？看看书这件事情的结果是什么？啊？那个那个小姑娘，那个小姑娘，就你对对对，结果是</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +9952,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>谁来试试？这这两句话，谁来读一下？</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>哎呀，听到风娃娃的感谢，听到伦的感谢风娃娃是什么？心情，秧苗也高兴了，蜂王也高兴了，能读出这种高兴来吗？高兴啊，你来，</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +9989,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>谁叫勇敢的试一试，把这个故事完整的给他给大家讲一下</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>好，那么我们刚才呢是根据提示讲述了风娃娃做的第一件好事。那请同学们按照这个提示，能不能来讲一下他做的第二件好事儿，，</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +10026,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>那你来吧，小男生</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>还是我们男生最勇敢是吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +10063,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>那个男生，你说，</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>词，反义词，意思相反的一段词，最后面那个小姑娘，对，就你，对吗？嗯，对为什么船会跑的很慢呢？</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +10100,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>谁来试着读一下这一段读出们船工的这个船的慢，还有拉船的这种费力，谁来挑战一下？</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>形声词也叫相声词，也叫拟声词。好，你刚才听到了他们的号子吗？变了，你看看这些船工拉这个船多么的费劲啊，</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +10137,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>那又为什么会变得飞快跑起来了呢？什么原因？，</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +10174,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>哎呀，多亏风娃娃进行了什么样的帮助啊，又所以，船工们可能会怎样？感谢风娃娃。，</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +10211,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>跟蜂啊点点头是吧，还可能怎样？感谢他。，</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +10248,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>读一下预备起</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>表示感谢的方法有很多很多，是不是？听到了船夫们的感谢，又接受到了秧苗的感谢，哎，锋芒的心情高兴极了。看来呀帮助别人真是一件令人高兴的事情，是不是？唉，于是蜂娃娃就产生了一个新的想法，帮</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +10285,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>那你觉得蜂娃为什么想法，对说说你的理由</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>。好，这个小姑娘，你</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +10322,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>同桌两个人，你讲一件，我讲一件，讲完就坐</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>，好好开始，穿越好朋友友，好的朋友，娃娃找一个幸器，来到了妈妈的来到了外面，来到他</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +10359,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>哦，讨厌你风娃娃，哎呦，风娃娃听了委屈的说，我只是想帮他们把风筝吹得更高一些，为什么责怪我呢？大家能告诉它理由吗？是因为什干什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +10396,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>你重新说一下</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>跑了。哎，我们告诉蜂王，你说是因为你怎么怎么样，，</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +10433,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>大家一起说一个预备</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>好，，是因为你把风筝吹得无影无踪，无影无踪，就是什么意思？</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +10470,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>好，继续，望着空空的晾衣架，妈妈们会生气的说什么？</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>你看这样就是我给你啊，这边的字就无，无风是不是好嘞？哎，拉不回来了，耶是我拉大了吗？啊，看来还得费点力气，</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +10507,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>谁能说一下理由？谁来告诉风马的理由是什么？</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>听了风娃娃听了委屈的说，我只是想让他们把衣服吹得更干一些，为什么责怪我呢？你来说是因为像这个样子。是因为你怎么怎么样？了啊，谁再来说是因为什么你来说</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +10544,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>所以，把衣服，</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +10581,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>请说一遍预备起，是</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>吹走了。对，</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +10618,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>你来</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>走，了哎呀，望着倒在地上的小树，植树的人会责怪的，说什么呢？，</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +10655,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>大家都要生气了，要伤心的要责怪他。那同学们看这个责怪，你觉得责怪是什么意思？能给他找一个近义词吗？嗯，我觉得不太合适，你说，不太合适，不行，还有能找到更加意思，差不多的吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +10692,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>谁能编一个小儿歌，你来说</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>戴是吧？我们学过一个戴红领巾的带，那么我们就可以利用形近字来实际这个字，你看，但是把这一部分变成了什么？变成了，</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +10729,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>大家一起说呆月兔呆呆呆，大电瓶车，电，呆好读一下这个词，预备起飞</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>木，那你就说带便木栽栽栽两遍说，，</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +10766,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>哎呀，风娃娃呀，可不止干了这么三件不好的事情，他还可能干了哪些不好的事情？如果他大家都责怪他批评他，哎呦，那就用的力气太那个龙卷风的气势是吧？你来说，</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +10803,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>能说哪些不好的？后面那个小女生</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>去了，哎呦，破坏性极大，，</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +10840,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>你想对他说点什么？你说</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>身上了。哎呦，请坐干了这么多不好的事情，那你想对风娃娃说些什么？</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +10877,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>对呀，你要到底要干海事是坏事儿是吧？嗯，别好心办了坏事儿，，</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +10914,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>好，请坐，</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +10951,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>爱不行，还要看是不是真的对别人没有用。哎呀，真像一个妈妈，耐心10足啊，那么童妈妈的话，你知道了什么？，</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +10988,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>那么哎，那我们平时在与人相处的时候，你觉得应该注意点什么？</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>关键是要看这后果，对别人哎，有用的才能去做，没用的就不能做了，对吧？好，请坐。</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +11025,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>从锋芒的教训当中，你吸取了，你要注意自己以后应该两个，</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +11062,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>哦，这个要啊，要和谐相处是吧？那么结合着这一课，如果你想去帮助同学，你觉得应该怎样去帮助对方？，</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +11099,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>好，后面那个小姑娘</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>帮他扶起来，做一件有意义的事情，是吧？嗯，那同学一定会对你表示感谢的，说你是一个充满爱心的人啊，还有补充吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8262,6 +11136,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>你还想说你再说</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>你可以安慰他，还可以帮他解决难题，是吧？哎，做了一件非常有意义的事情，你真是个有智慧的小姑娘，，</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8287,6 +11171,16 @@
       <c r="E291" t="inlineStr">
         <is>
           <t>其他</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>的啊，请坐看来我们同学都会做对别人，有用的事情都是充满了智慧的啊。相信呢蜂娃娃听了大家的这些交流以后，在生活中也会学会与人。</t>
         </is>
       </c>
     </row>
